--- a/measured/synthetic/MSI/synthetic_MSI_our_results.xlsx
+++ b/measured/synthetic/MSI/synthetic_MSI_our_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\output\synthetic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5C5840-4928-4F6C-811C-1A75D53596E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10DA9E-42BD-47C4-B174-854E942F5565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2664" windowWidth="17280" windowHeight="9696" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="258">
   <si>
     <t>wlmin</t>
   </si>
@@ -456,9 +456,6 @@
     <t>solar azimuth angle</t>
   </si>
   <si>
-    <t>band name</t>
-  </si>
-  <si>
     <t>observation azimuth angle</t>
   </si>
   <si>
@@ -474,15 +471,9 @@
     <t>pix_lon</t>
   </si>
   <si>
-    <t>(8, 3)</t>
-  </si>
-  <si>
     <t>image_path</t>
   </si>
   <si>
-    <t>path to file with image .nc</t>
-  </si>
-  <si>
     <t>your_names</t>
   </si>
   <si>
@@ -501,15 +492,9 @@
     <t>i_srf</t>
   </si>
   <si>
-    <t>S3A_OLCI, SLSTR, MSI if you excluded some bands configure 'bands' sheet</t>
-  </si>
-  <si>
     <t>uneven (odd) integer or 0</t>
   </si>
   <si>
-    <t>Lae(47,4780833, 8,365)</t>
-  </si>
-  <si>
     <t>sun_zenith</t>
   </si>
   <si>
@@ -520,9 +505,6 @@
   </si>
   <si>
     <t>view_azimuth_mean</t>
-  </si>
-  <si>
-    <t>Maj (39,9415, -5,77336111)</t>
   </si>
   <si>
     <t>tz</t>
@@ -726,28 +708,222 @@
     <t>..\measured\Sentinel-2_sample.nc</t>
   </si>
   <si>
-    <t>sample_S2</t>
-  </si>
-  <si>
-    <t>D:\George\0_Vredepel\2019-07-03\for_retrieval\20190703_vre_ts.csv</t>
-  </si>
-  <si>
     <t>Vredepeel (51.540788, 5.860210)</t>
   </si>
   <si>
     <t>Lelystad (52.54, 5.55)</t>
   </si>
   <si>
+    <t>synthetic_sat</t>
+  </si>
+  <si>
+    <t>quality_flag_name</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name: substituted by `tts` if absent</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name: substituted by `tto` if absent</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] band name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] band name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>required if K ~= 0</t>
+    </r>
+  </si>
+  <si>
+    <t>qulity flag</t>
+  </si>
+  <si>
+    <t>quality_flag_is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flag == quality_flag_is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fitting will be done for this pixel</t>
+    </r>
+  </si>
+  <si>
+    <t>quality_flag_lt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flag &lt; quality_flag_ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fitting will be done for this pixel</t>
+    </r>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic.csv</t>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic_wl.csv</t>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MSI\synthetic_val.csv</t>
+  </si>
+  <si>
+    <t>lut_path</t>
+  </si>
+  <si>
+    <t>.mat</t>
+  </si>
+  <si>
+    <t>lut_input</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>[OPTIONAL] lut input parameters: number of rows == number of rows in LUT, header with names corresponding to Input</t>
+  </si>
+  <si>
+    <t>MSI, OLCI, SLSTR, Synergy if you excluded some bands configure 'bands' sheet</t>
+  </si>
+  <si>
+    <t>Synergy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> look-up table will be used instead of numerical optimization</t>
+    </r>
+  </si>
+  <si>
     <t>synthetic</t>
   </si>
   <si>
-    <t>../measured/synthetic/MSI/synthetic.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/MSI/synthetic_wl.csv</t>
-  </si>
-  <si>
-    <t>../measured/synthetic/MSI/synthetic_val.csv</t>
+    <t>NL (52.5283, 5.6035)</t>
+  </si>
+  <si>
+    <t>.nc</t>
+  </si>
+  <si>
+    <t>path to file with image: NetCDF format</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] band name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leave emtpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if none (quality_scene_classification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[OPTIONAL] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> look-up table will be used instead of numerical optimization (..\lut\MSI_1000\lut.mat)</t>
+    </r>
   </si>
   <si>
     <t>rmse</t>
@@ -814,7 +990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,8 +1018,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,11 +1040,81 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -870,14 +1124,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,11 +1158,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,7 +1532,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,367 +1568,367 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="25">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="25">
         <v>0.5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
         <v>0.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="25">
         <v>0.3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="25">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="25">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="25">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="25">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>55</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="28">
         <v>40</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="28">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="28">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="28">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="28">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="28">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
         <v>0.02</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="28">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
         <v>0.2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="28">
         <v>0.02</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="28">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="28">
         <v>0.6</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
         <v>1.2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="28">
         <v>0.4</v>
       </c>
-      <c r="G11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="28">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="28">
         <v>1.4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="28">
         <v>3.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="28">
         <v>0.75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="30">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="30">
         <v>-0.35</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="30">
         <v>-1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="30">
         <v>0.6</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="30">
         <v>-0.15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="30">
         <v>-1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="30">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="30">
         <v>0.6</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="34">
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1665,7 +1943,7 @@
       <c r="E16">
         <v>40</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>1000000000</v>
       </c>
       <c r="G16" t="s">
@@ -1673,7 +1951,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="34"/>
       <c r="B17" t="s">
         <v>58</v>
       </c>
@@ -1686,7 +1964,7 @@
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>1000000000</v>
       </c>
       <c r="G17" t="s">
@@ -1694,7 +1972,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="34"/>
       <c r="B18" t="s">
         <v>59</v>
       </c>
@@ -1707,7 +1985,7 @@
       <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>1000000000</v>
       </c>
       <c r="G18" t="s">
@@ -1715,7 +1993,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="34"/>
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +2006,7 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>1000000000</v>
       </c>
       <c r="G19" t="s">
@@ -1748,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K14"/>
+      <selection activeCell="B2" sqref="B2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,7 +2044,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>7.7933082212018195E-2</v>
@@ -1801,7 +2079,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B3">
         <v>9.2438734430590697E-2</v>
@@ -1836,7 +2114,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>560.5</v>
+        <v>560</v>
       </c>
       <c r="B4">
         <v>0.12117467184709836</v>
@@ -1906,7 +2184,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>704.5</v>
+        <v>705</v>
       </c>
       <c r="B6">
         <v>0.16893193477930787</v>
@@ -2011,7 +2289,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>838.84</v>
+        <v>842</v>
       </c>
       <c r="B9">
         <v>0.19414421947866048</v>
@@ -2046,7 +2324,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>863.25</v>
+        <v>865</v>
       </c>
       <c r="B10">
         <v>0.19717314650907103</v>
@@ -2116,106 +2394,71 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1374.5</v>
+        <v>1610</v>
       </c>
       <c r="B12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="C12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="D12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="E12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="F12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="G12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="H12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="I12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="J12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
       <c r="K12">
-        <v>0.22577964883939716</v>
+        <v>0.23063977183186687</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1610.5</v>
+        <v>2190</v>
       </c>
       <c r="B13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="C13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="D13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="E13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="F13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="G13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="H13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="I13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="J13">
-        <v>0.23063977183186687</v>
+        <v>0.21182587566741534</v>
       </c>
       <c r="K13">
-        <v>0.23063977183186687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2199</v>
-      </c>
-      <c r="B14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="C14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="D14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="E14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="F14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="G14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="H14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="I14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="J14">
-        <v>0.21182587566741534</v>
-      </c>
-      <c r="K14">
         <v>0.21182587566741534</v>
       </c>
     </row>
@@ -2247,7 +2490,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2282,7 +2525,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2317,7 +2560,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2352,7 +2595,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2387,7 +2630,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2422,7 +2665,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2457,7 +2700,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2492,7 +2735,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2527,7 +2770,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2562,7 +2805,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2597,7 +2840,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2632,7 +2875,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2667,7 +2910,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2702,7 +2945,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2737,7 +2980,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2772,7 +3015,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2807,7 +3050,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2842,7 +3085,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2877,7 +3120,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2912,7 +3155,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2947,7 +3190,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2982,7 +3225,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3017,7 +3260,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3052,7 +3295,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3087,7 +3330,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3122,7 +3365,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3157,7 +3400,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3192,7 +3435,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3227,7 +3470,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3262,7 +3505,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3297,7 +3540,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3332,7 +3575,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3367,7 +3610,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3402,7 +3645,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3437,7 +3680,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3472,7 +3715,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3507,7 +3750,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3542,7 +3785,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3577,7 +3820,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3612,7 +3855,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3647,7 +3890,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3682,7 +3925,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3717,7 +3960,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3752,7 +3995,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3787,7 +4030,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3822,7 +4065,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3857,7 +4100,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3892,7 +4135,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3927,7 +4170,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3962,7 +4205,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3997,7 +4240,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4032,7 +4275,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4067,7 +4310,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4102,7 +4345,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4137,7 +4380,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4172,7 +4415,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4207,7 +4450,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4242,7 +4485,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4277,7 +4520,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4312,7 +4555,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4347,7 +4590,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4382,7 +4625,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4417,7 +4660,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4452,7 +4695,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4487,7 +4730,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4522,7 +4765,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4557,7 +4800,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4592,7 +4835,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4627,7 +4870,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -4662,7 +4905,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4697,7 +4940,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4732,7 +4975,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4767,7 +5010,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4802,7 +5045,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4837,7 +5080,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4872,7 +5115,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4907,7 +5150,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4942,7 +5185,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4977,7 +5220,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -5012,7 +5255,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -5047,7 +5290,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -5082,7 +5325,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -5117,7 +5360,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -5152,7 +5395,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -5187,7 +5430,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -5222,7 +5465,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -5257,7 +5500,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -5292,7 +5535,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -5327,7 +5570,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5362,7 +5605,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5397,7 +5640,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -5432,7 +5675,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5467,7 +5710,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -5502,7 +5745,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5537,7 +5780,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5572,7 +5815,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5607,7 +5850,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5642,7 +5885,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5677,7 +5920,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5712,7 +5955,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -5747,7 +5990,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -5782,7 +6025,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -5817,7 +6060,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -5852,7 +6095,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5887,7 +6130,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5922,7 +6165,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -5957,7 +6200,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -5992,7 +6235,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -6027,7 +6270,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -6062,7 +6305,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -6097,7 +6340,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -6132,7 +6375,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -6167,7 +6410,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -6202,7 +6445,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -6237,7 +6480,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -6272,7 +6515,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -6307,7 +6550,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -6342,7 +6585,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -6377,7 +6620,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -6412,7 +6655,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -6447,7 +6690,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -6482,7 +6725,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -6517,7 +6760,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -6552,7 +6795,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -6587,7 +6830,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -6622,7 +6865,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -6657,7 +6900,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -6692,7 +6935,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -6727,7 +6970,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -6762,7 +7005,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -6797,7 +7040,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -6832,7 +7075,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -6867,7 +7110,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6902,7 +7145,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -6937,7 +7180,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6972,7 +7215,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -7007,7 +7250,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -7042,7 +7285,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -7077,7 +7320,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7112,7 +7355,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7147,7 +7390,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7182,7 +7425,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7217,7 +7460,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7252,7 +7495,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7287,7 +7530,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7322,7 +7565,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7357,7 +7600,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7392,7 +7635,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7427,7 +7670,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7462,7 +7705,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7497,7 +7740,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7532,7 +7775,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -7567,7 +7810,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7602,7 +7845,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -7637,7 +7880,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -7672,7 +7915,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -7707,7 +7950,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7742,7 +7985,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7777,7 +8020,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7812,7 +8055,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -7847,7 +8090,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7882,7 +8125,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7917,7 +8160,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -7952,7 +8195,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7987,7 +8230,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -8022,7 +8265,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -8057,7 +8300,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -8092,7 +8335,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8127,7 +8370,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -8162,7 +8405,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -8197,7 +8440,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -8232,7 +8475,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -8267,7 +8510,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -8302,7 +8545,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8337,7 +8580,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -8372,7 +8615,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -8407,7 +8650,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -8442,7 +8685,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8477,7 +8720,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -8512,7 +8755,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -8547,7 +8790,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -8582,7 +8825,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -8617,7 +8860,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -8652,7 +8895,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -8687,7 +8930,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -8722,7 +8965,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -8757,7 +9000,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -8792,7 +9035,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -8827,7 +9070,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -8862,7 +9105,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8897,7 +9140,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -8932,7 +9175,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -8967,7 +9210,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -9002,7 +9245,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -9037,7 +9280,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -9072,7 +9315,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -9107,7 +9350,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -9142,7 +9385,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -9177,7 +9420,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -9212,7 +9455,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -9247,7 +9490,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -9282,7 +9525,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -9317,7 +9560,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -9352,7 +9595,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -9387,7 +9630,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -9422,7 +9665,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -9457,7 +9700,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -9492,7 +9735,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -9527,7 +9770,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -9562,7 +9805,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -9597,7 +9840,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -9655,7 +9898,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9690,7 +9933,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9725,7 +9968,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9760,7 +10003,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9795,7 +10038,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9830,7 +10073,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9865,7 +10108,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9900,7 +10143,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9935,7 +10178,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9970,7 +10213,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10005,7 +10248,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10040,7 +10283,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10075,7 +10318,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10110,7 +10353,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10145,7 +10388,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10180,7 +10423,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10215,7 +10458,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10250,7 +10493,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10285,7 +10528,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10320,7 +10563,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10355,7 +10598,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10390,7 +10633,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10425,7 +10668,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10460,7 +10703,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10495,7 +10738,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10530,7 +10773,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10565,7 +10808,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10600,7 +10843,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10635,7 +10878,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10670,7 +10913,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10705,7 +10948,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10740,7 +10983,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10775,7 +11018,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10810,7 +11053,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10845,7 +11088,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10880,7 +11123,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10915,7 +11158,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10950,7 +11193,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10985,7 +11228,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11020,7 +11263,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11055,7 +11298,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11090,7 +11333,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11125,7 +11368,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11160,7 +11403,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11195,7 +11438,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11230,7 +11473,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11265,7 +11508,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11300,7 +11543,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11335,7 +11578,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11370,7 +11613,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11405,7 +11648,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11440,7 +11683,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11475,7 +11718,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -11510,7 +11753,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -11545,7 +11788,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -11580,7 +11823,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -11615,7 +11858,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -11650,7 +11893,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11685,7 +11928,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11720,7 +11963,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -11755,7 +11998,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -11790,7 +12033,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -11825,7 +12068,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -11860,7 +12103,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -11895,7 +12138,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -11930,7 +12173,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -11965,7 +12208,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -12000,7 +12243,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -12035,7 +12278,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -12070,7 +12313,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -12105,7 +12348,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -12140,7 +12383,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -12175,7 +12418,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -12210,7 +12453,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -12245,7 +12488,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -12280,7 +12523,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -12315,7 +12558,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -12350,7 +12593,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -12385,7 +12628,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -12420,7 +12663,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -12455,7 +12698,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -12490,7 +12733,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -12525,7 +12768,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -12560,7 +12803,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -12595,7 +12838,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -12630,7 +12873,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -12665,7 +12908,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -12700,7 +12943,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -12735,7 +12978,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -12770,7 +13013,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -12805,7 +13048,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -12840,7 +13083,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -12875,7 +13118,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -12910,7 +13153,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -12945,7 +13188,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -12980,7 +13223,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -13015,7 +13258,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -13050,7 +13293,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -13085,7 +13328,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -13120,7 +13363,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -13155,7 +13398,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -13190,7 +13433,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -13225,7 +13468,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -13260,7 +13503,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13295,7 +13538,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13330,7 +13573,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13365,7 +13608,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13400,7 +13643,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13435,7 +13678,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13470,7 +13713,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13505,7 +13748,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13540,7 +13783,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13575,7 +13818,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13610,7 +13853,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13645,7 +13888,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13680,7 +13923,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13715,7 +13958,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13750,7 +13993,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13785,7 +14028,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13820,7 +14063,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13855,7 +14098,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13890,7 +14133,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -13925,7 +14168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -13960,7 +14203,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -13995,7 +14238,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14030,7 +14273,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14065,7 +14308,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14100,7 +14343,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14135,7 +14378,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14170,7 +14413,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14205,7 +14448,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -14240,7 +14483,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -14275,7 +14518,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -14310,7 +14553,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -14345,7 +14588,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -14380,7 +14623,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -14415,7 +14658,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -14450,7 +14693,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -14485,7 +14728,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -14520,7 +14763,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -14555,7 +14798,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -14590,7 +14833,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -14625,7 +14868,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -14660,7 +14903,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -14695,7 +14938,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -14730,7 +14973,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -14765,7 +15008,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -14800,7 +15043,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -14835,7 +15078,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -14870,7 +15113,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -14905,7 +15148,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -14940,7 +15183,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -14975,7 +15218,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -15010,7 +15253,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -15045,7 +15288,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -15080,7 +15323,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -15115,7 +15358,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -15150,7 +15393,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -15185,7 +15428,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -15220,7 +15463,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -15255,7 +15498,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -15290,7 +15533,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -15325,7 +15568,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -15360,7 +15603,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -15395,7 +15638,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -15430,7 +15673,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -15465,7 +15708,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -15500,7 +15743,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -15535,7 +15778,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -15570,7 +15813,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -15605,7 +15848,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -15640,7 +15883,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -15675,7 +15918,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -15710,7 +15953,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -15745,7 +15988,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -15780,7 +16023,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -15815,7 +16058,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -15850,7 +16093,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -15885,7 +16128,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -15920,7 +16163,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -15955,7 +16198,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -15990,7 +16233,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -16025,7 +16268,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -16060,7 +16303,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -16095,7 +16338,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -16130,7 +16373,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -16165,7 +16408,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -16200,7 +16443,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -16235,7 +16478,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -16270,7 +16513,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -16305,7 +16548,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -16340,7 +16583,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -16375,7 +16618,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -16410,7 +16653,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -16445,7 +16688,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -16480,7 +16723,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -16515,7 +16758,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -16550,7 +16793,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -16585,7 +16828,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -16620,7 +16863,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -16655,7 +16898,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -16690,7 +16933,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -16725,7 +16968,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -16760,7 +17003,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -16795,7 +17038,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -16830,7 +17073,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -16865,7 +17108,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -16900,7 +17143,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -16935,7 +17178,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -16970,7 +17213,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -17005,7 +17248,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -17045,10 +17288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17086,19 +17329,18 @@
         <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -17106,24 +17348,24 @@
         <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -17131,7 +17373,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -17139,300 +17381,302 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>213</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B17" s="8">
         <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10">
-        <v>400</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2400</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B23" s="8">
         <v>-999</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="10">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
+      <c r="B29" s="8">
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
       <c r="D29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="8">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B32" s="8">
         <v>0.05</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="D31" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>171</v>
+      <c r="A34" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -17442,71 +17686,93 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="12">
-        <v>51.540787999999999</v>
-      </c>
-      <c r="D35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="B37" s="10">
+        <v>52.54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="12">
-        <v>5.8602100000000004</v>
-      </c>
-      <c r="D36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="B38" s="10">
+        <v>5.55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
         <v>168</v>
       </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17519,7 +17785,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17551,32 +17817,32 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>186</v>
+      <c r="A2" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>187</v>
+      <c r="A3" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>188</v>
+      <c r="A4" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -17592,7 +17858,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -17608,7 +17874,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -17624,21 +17890,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>203</v>
+      <c r="A9" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -17649,10 +17912,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17687,13 +17950,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -17704,7 +17970,7 @@
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -17712,7 +17978,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -17720,276 +17986,326 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>213</v>
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>152</v>
+      <c r="D11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="9">
+        <v>39.941499999999998</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="8">
+        <v>-5.7733611099999997</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>139</v>
       </c>
-      <c r="D13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="11">
-        <v>39.941499999999998</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="10">
-        <v>-5.7733611099999997</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="10">
-        <v>44.8</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="8">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="10">
-        <v>19.7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="10">
-        <v>223</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>154</v>
+      <c r="D33" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -18000,7 +18316,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
@@ -18009,466 +18325,679 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" t="s">
-        <v>150</v>
-      </c>
       <c r="I1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>400.28</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="15">
-        <v>443</v>
+        <v>94</v>
+      </c>
+      <c r="G3" s="14">
+        <v>400.28</v>
       </c>
       <c r="H3" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="15">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="13">
+        <v>443</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>412.69</v>
       </c>
       <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>659</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="15">
-        <v>490</v>
+        <v>95</v>
+      </c>
+      <c r="G4" s="14">
+        <v>412.69</v>
       </c>
       <c r="H4" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>490</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="13">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>442.49</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>865</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="15">
-        <v>560</v>
+        <v>96</v>
+      </c>
+      <c r="G5" s="14">
+        <v>442.49</v>
       </c>
       <c r="H5" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="13">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>490.98</v>
       </c>
       <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>1375</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="15">
-        <v>665</v>
+        <v>97</v>
+      </c>
+      <c r="G6" s="14">
+        <v>490.98</v>
       </c>
       <c r="H6" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>665</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="13">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>510.9</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>1610</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="15">
-        <v>705</v>
+        <v>98</v>
+      </c>
+      <c r="G7" s="14">
+        <v>510.9</v>
       </c>
       <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>705</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="13">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>560.74</v>
       </c>
       <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>2250</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="15">
-        <v>740</v>
+        <v>99</v>
+      </c>
+      <c r="G8" s="14">
+        <v>560.74</v>
       </c>
       <c r="H8" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>740</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="13">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>620.64</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="15">
-        <v>783</v>
+        <v>100</v>
+      </c>
+      <c r="G9" s="14">
+        <v>620.64</v>
       </c>
       <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>783</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="13">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>665.62</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="15">
-        <v>842</v>
+        <v>101</v>
+      </c>
+      <c r="G10" s="14">
+        <v>665.62</v>
       </c>
       <c r="H10" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>842</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="13">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>674.36</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="15">
-        <v>865</v>
+        <v>102</v>
+      </c>
+      <c r="G11" s="14">
+        <v>674.36</v>
       </c>
       <c r="H11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>865</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>681.86</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="15">
-        <v>945</v>
+        <v>103</v>
+      </c>
+      <c r="G12" s="14">
+        <v>681.86</v>
       </c>
       <c r="H12" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>945</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="13">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>709.37</v>
       </c>
       <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="14">
+        <v>709.37</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="15">
+      <c r="I13" s="23">
         <v>1375</v>
       </c>
-      <c r="H13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>754.39</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1610</v>
+        <v>105</v>
+      </c>
+      <c r="G14" s="14">
+        <v>754.39</v>
       </c>
       <c r="H14" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>1610</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="22">
         <v>761.89</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="15">
-        <v>2190</v>
+        <v>106</v>
+      </c>
+      <c r="G15" s="14">
+        <v>761.89</v>
       </c>
       <c r="H15" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>2190</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="13">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="22">
         <v>764.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="14">
+        <v>764.4</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>768.15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="14">
+        <v>768.15</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>779.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="14">
+        <v>779.41</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>865.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="14">
+        <v>865.73</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>885.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="14">
+        <v>885.73</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>900.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="14">
+        <v>900.74</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>940.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="14">
+        <v>940.74</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>1024.67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1024.67</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="6">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="6">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2250</v>
       </c>
     </row>
   </sheetData>
@@ -18491,27 +19020,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>173</v>
+      <c r="A5" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -18539,37 +19068,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B2">
-        <v>3.9043016599866402E-4</v>
+        <v>3.7063168845558872E-4</v>
       </c>
       <c r="C2">
-        <v>3.7731880993292386E-4</v>
+        <v>2.4224816867884813E-4</v>
       </c>
       <c r="D2">
-        <v>7.4154151654275569E-4</v>
+        <v>8.4830390707221228E-4</v>
       </c>
       <c r="E2">
-        <v>3.1146262052390573E-4</v>
+        <v>2.5065682115384146E-4</v>
       </c>
       <c r="F2">
-        <v>1.3604518674595825E-4</v>
+        <v>2.102225857674064E-4</v>
       </c>
       <c r="G2">
-        <v>1.1496653857451514E-4</v>
+        <v>2.3446994582856999E-4</v>
       </c>
       <c r="H2">
-        <v>4.7312425046573279E-5</v>
+        <v>1.4761053833458628E-4</v>
       </c>
       <c r="I2">
-        <v>1.6406363480071451E-4</v>
+        <v>3.6989532530515371E-4</v>
       </c>
       <c r="J2">
-        <v>3.7303386121984445E-4</v>
+        <v>1.2403506390571656E-4</v>
       </c>
       <c r="K2">
-        <v>1.4444505771712339E-3</v>
+        <v>1.3163196336564834E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -18717,34 +19246,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>73.404765587657181</v>
+        <v>78.472550144736815</v>
       </c>
       <c r="C7">
-        <v>14.467140181066327</v>
+        <v>15.192830954475665</v>
       </c>
       <c r="D7">
-        <v>36.20272080062113</v>
+        <v>39.893376942137941</v>
       </c>
       <c r="E7">
-        <v>71.638914411269425</v>
+        <v>80.164970494344843</v>
       </c>
       <c r="F7">
-        <v>39.826022996811311</v>
+        <v>38.875131530452279</v>
       </c>
       <c r="G7">
-        <v>25.929130650079049</v>
+        <v>25.533917702164246</v>
       </c>
       <c r="H7">
-        <v>56.026598274952519</v>
+        <v>53.128836168430958</v>
       </c>
       <c r="I7">
-        <v>73.394964997433192</v>
+        <v>66.875444286969156</v>
       </c>
       <c r="J7">
-        <v>29.758345336283579</v>
+        <v>34.322907671286849</v>
       </c>
       <c r="K7">
-        <v>5.6252465068324486</v>
+        <v>6.0486872481038354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -18752,34 +19281,34 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>15.784967826032418</v>
+        <v>17.133074807453582</v>
       </c>
       <c r="C8">
-        <v>18.7078724067349</v>
+        <v>21.070317909597303</v>
       </c>
       <c r="D8">
-        <v>1.4909683370224301E-2</v>
+        <v>1.7905667084167887E-6</v>
       </c>
       <c r="E8">
-        <v>0.78355218519399161</v>
+        <v>1.0601559572514756</v>
       </c>
       <c r="F8">
-        <v>8.2682063672946402</v>
+        <v>7.9968725268582972</v>
       </c>
       <c r="G8">
-        <v>16.104715974357234</v>
+        <v>15.06252256807079</v>
       </c>
       <c r="H8">
-        <v>4.2403899480994118</v>
+        <v>4.3311695579815694</v>
       </c>
       <c r="I8">
-        <v>5.0301506329178451</v>
+        <v>3.8869872980185183</v>
       </c>
       <c r="J8">
-        <v>15.666211721761478</v>
+        <v>19.800972546010478</v>
       </c>
       <c r="K8">
-        <v>0.74993841949252893</v>
+        <v>0.80305080061698597</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -18787,34 +19316,34 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>0.46792236989439051</v>
+        <v>0.56200687011094963</v>
       </c>
       <c r="C9">
-        <v>4.4692254115471277</v>
+        <v>4.6755373795976247</v>
       </c>
       <c r="D9">
-        <v>1.2268777630290171</v>
+        <v>1.7068985087462285</v>
       </c>
       <c r="E9">
-        <v>1.5826952979026219</v>
+        <v>2.190743760559692</v>
       </c>
       <c r="F9">
-        <v>3.2741858090322311</v>
+        <v>3.1202490428418326</v>
       </c>
       <c r="G9">
-        <v>2.8618409926118433</v>
+        <v>2.9894066565175681</v>
       </c>
       <c r="H9">
-        <v>0.7997167036945404</v>
+        <v>0.78805825842470345</v>
       </c>
       <c r="I9">
-        <v>3.271319724803273</v>
+        <v>2.8359904440502257</v>
       </c>
       <c r="J9">
-        <v>2.4418474382250333</v>
+        <v>2.8551515368006757</v>
       </c>
       <c r="K9">
-        <v>1.9542861612972153</v>
+        <v>1.9996536320200693</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -18822,34 +19351,34 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>1.402182311669024E-2</v>
+        <v>1.4302950817669554E-2</v>
       </c>
       <c r="C10">
-        <v>7.5740045507169534E-3</v>
+        <v>8.5098708065428196E-3</v>
       </c>
       <c r="D10">
-        <v>5.8422693719023377E-3</v>
+        <v>9.253950668525638E-3</v>
       </c>
       <c r="E10">
-        <v>6.3825059162112008E-4</v>
+        <v>2.0668285882313874E-3</v>
       </c>
       <c r="F10">
-        <v>1.3498493331413329E-2</v>
+        <v>1.2321042254980263E-2</v>
       </c>
       <c r="G10">
-        <v>2.1232741501862893E-3</v>
+        <v>2.6147907821460815E-3</v>
       </c>
       <c r="H10">
-        <v>3.3901020666754146E-3</v>
+        <v>4.4724341209700759E-3</v>
       </c>
       <c r="I10">
-        <v>7.559483406916627E-4</v>
+        <v>1.5917271790292949E-5</v>
       </c>
       <c r="J10">
-        <v>7.9860055730952874E-3</v>
+        <v>1.0024908560317559E-2</v>
       </c>
       <c r="K10">
-        <v>1.112720320030882E-2</v>
+        <v>1.2315257495386389E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -18857,34 +19386,34 @@
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0.11571970840913509</v>
+        <v>0.12417923786733653</v>
       </c>
       <c r="C11">
-        <v>0.14776718432580896</v>
+        <v>0.15480320023581762</v>
       </c>
       <c r="D11">
-        <v>8.2863023977326672E-2</v>
+        <v>8.9777730233585457E-2</v>
       </c>
       <c r="E11">
-        <v>1.9703682477323434E-2</v>
+        <v>2.0377612559911804E-2</v>
       </c>
       <c r="F11">
-        <v>3.4883296163872798E-2</v>
+        <v>3.4695326606224437E-2</v>
       </c>
       <c r="G11">
-        <v>2.3326413864569712E-2</v>
+        <v>2.2390207806783941E-2</v>
       </c>
       <c r="H11">
-        <v>0.14594253221237422</v>
+        <v>0.13797931395575805</v>
       </c>
       <c r="I11">
-        <v>0.16692073371705482</v>
+        <v>0.15327072883614137</v>
       </c>
       <c r="J11">
-        <v>0.15814347916715821</v>
+        <v>0.18039393799050615</v>
       </c>
       <c r="K11">
-        <v>0.12565201729835024</v>
+        <v>0.15276086493796068</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -18892,34 +19421,34 @@
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0.11137963069941638</v>
+        <v>0.11861543997727009</v>
       </c>
       <c r="C12">
-        <v>0.1617786063455236</v>
+        <v>0.16802268714243168</v>
       </c>
       <c r="D12">
-        <v>0.60157582057035774</v>
+        <v>0.63453033435488648</v>
       </c>
       <c r="E12">
-        <v>1.0070028717200514</v>
+        <v>1.0861085728737823</v>
       </c>
       <c r="F12">
-        <v>0.55491707163744075</v>
+        <v>0.55776212213534004</v>
       </c>
       <c r="G12">
-        <v>0.59014626094525413</v>
+        <v>0.57786272743724987</v>
       </c>
       <c r="H12">
-        <v>0.91655789300249824</v>
+        <v>0.89286750546693627</v>
       </c>
       <c r="I12">
-        <v>0.37822966125101798</v>
+        <v>0.35095048442646593</v>
       </c>
       <c r="J12">
-        <v>0.30221238981082149</v>
+        <v>0.34036212511001057</v>
       </c>
       <c r="K12">
-        <v>0.10011087166734788</v>
+        <v>0.13594908928372798</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -18927,34 +19456,34 @@
         <v>54</v>
       </c>
       <c r="B13">
-        <v>1.5341452385620418</v>
+        <v>1.6649973862362113</v>
       </c>
       <c r="C13">
-        <v>1.9802409110688026</v>
+        <v>2.0420490253152752</v>
       </c>
       <c r="D13">
-        <v>1.3249408263315772</v>
+        <v>1.7198350531230666</v>
       </c>
       <c r="E13">
-        <v>2.8440355784089753</v>
+        <v>3.1885062741287045</v>
       </c>
       <c r="F13">
-        <v>1.9004632668633006</v>
+        <v>1.8529073105956977</v>
       </c>
       <c r="G13">
-        <v>3.1033481319301681</v>
+        <v>3.2562953174834735</v>
       </c>
       <c r="H13">
-        <v>1.0576238492010008</v>
+        <v>1.0142148698537945</v>
       </c>
       <c r="I13">
-        <v>1.1354730311892125</v>
+        <v>1.0000046680242467</v>
       </c>
       <c r="J13">
-        <v>2.6208285857445901</v>
+        <v>2.8708686540271438</v>
       </c>
       <c r="K13">
-        <v>1.2531103298751356</v>
+        <v>1.2414108794405005</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -18962,34 +19491,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.4690611837243881</v>
+        <v>2.8010532131355581</v>
       </c>
       <c r="C14">
-        <v>4.6073869214770644</v>
+        <v>5.02650129715507</v>
       </c>
       <c r="D14">
-        <v>1.7579683223436773</v>
+        <v>2.6805937471337558</v>
       </c>
       <c r="E14">
-        <v>1.3165938390482719</v>
+        <v>2.0810932404469975</v>
       </c>
       <c r="F14">
-        <v>3.0555279391175008</v>
+        <v>3.2879026589936404</v>
       </c>
       <c r="G14">
-        <v>1.4243033607958369</v>
+        <v>2.3933838464289687</v>
       </c>
       <c r="H14">
-        <v>0.55537171458269863</v>
+        <v>0.97069789014337959</v>
       </c>
       <c r="I14">
-        <v>1.0504451217199871</v>
+        <v>1.7988298191135588</v>
       </c>
       <c r="J14">
-        <v>3.97732631997135</v>
+        <v>4.6067482137898281</v>
       </c>
       <c r="K14">
-        <v>2.2394205646262533</v>
+        <v>2.9734070907950763</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -18997,34 +19526,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.67579452100586868</v>
+        <v>0.77262078907716236</v>
       </c>
       <c r="C15">
-        <v>0.63630107510428568</v>
+        <v>0.74018428512640466</v>
       </c>
       <c r="D15">
-        <v>-0.30134052607311468</v>
+        <v>-0.35715761248329564</v>
       </c>
       <c r="E15">
-        <v>-1.2189854759661334E-2</v>
+        <v>5.0121410647692349E-2</v>
       </c>
       <c r="F15">
-        <v>0.42581122749774253</v>
+        <v>0.4586849553042166</v>
       </c>
       <c r="G15">
-        <v>-0.16256692065043932</v>
+        <v>-0.20520938703433778</v>
       </c>
       <c r="H15">
-        <v>-0.59739129983443973</v>
+        <v>-0.592260302585919</v>
       </c>
       <c r="I15">
-        <v>6.6112299415813341E-2</v>
+        <v>-7.6162754906486368E-3</v>
       </c>
       <c r="J15">
-        <v>-0.18031460974536556</v>
+        <v>-6.4713940242437054E-2</v>
       </c>
       <c r="K15">
-        <v>-0.67041259648382912</v>
+        <v>-0.59253257182036378</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -19032,34 +19561,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.12474002186215133</v>
+        <v>-3.3836352827585292E-2</v>
       </c>
       <c r="C16">
-        <v>-2.9267184371917554E-2</v>
+        <v>-1.6200202663957664E-2</v>
       </c>
       <c r="D16">
-        <v>-2.9798234594784728E-2</v>
+        <v>7.8070496032925929E-3</v>
       </c>
       <c r="E16">
-        <v>0.50995996546997469</v>
+        <v>-2.2157424623080769E-3</v>
       </c>
       <c r="F16">
-        <v>-4.4345507550558771E-2</v>
+        <v>-5.4661748463705778E-2</v>
       </c>
       <c r="G16">
-        <v>0.19502108930283552</v>
+        <v>-4.8483240347846776E-2</v>
       </c>
       <c r="H16">
-        <v>-5.7388218162309157E-2</v>
+        <v>-0.14754250830479582</v>
       </c>
       <c r="I16">
-        <v>1.0388564062284271E-2</v>
+        <v>-1.1296564420126878E-2</v>
       </c>
       <c r="J16">
-        <v>-0.27801067539991375</v>
+        <v>-0.21912131082801839</v>
       </c>
       <c r="K16">
-        <v>-0.32776009028253472</v>
+        <v>-0.40702797558828446</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -19204,632 +19733,632 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B21">
-        <v>0.70203682032257819</v>
+        <v>1.4787272197272081E-2</v>
       </c>
       <c r="C21">
-        <v>10.609708237720263</v>
+        <v>0.55170852193903064</v>
       </c>
       <c r="D21">
-        <v>0.43024355096052319</v>
+        <v>2.5544790891914467E-2</v>
       </c>
       <c r="E21">
-        <v>0.16154749684180128</v>
+        <v>0.72467572123839896</v>
       </c>
       <c r="F21">
-        <v>0.39171093470113461</v>
+        <v>0.24476908224982796</v>
       </c>
       <c r="G21">
-        <v>5.5533117382792138E-2</v>
+        <v>3.9332648850478873E-2</v>
       </c>
       <c r="H21">
-        <v>2.8473629335586573E-2</v>
+        <v>1.6972122585336015E-2</v>
       </c>
       <c r="I21">
-        <v>0.41192913472380249</v>
+        <v>4.5731704763195422E-2</v>
       </c>
       <c r="J21">
-        <v>1.000609990512312</v>
+        <v>0.94150788588114431</v>
       </c>
       <c r="K21">
-        <v>0.36106229733184936</v>
+        <v>0.199809705944369</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B22">
-        <v>100.47013468325071</v>
+        <v>9.2677360651480516</v>
       </c>
       <c r="C22">
-        <v>181.16602075991239</v>
+        <v>68.915210662629633</v>
       </c>
       <c r="D22">
-        <v>10.740157166135944</v>
+        <v>2.3043965885590905</v>
       </c>
       <c r="E22">
-        <v>1.1729166066046819</v>
+        <v>0.2776995440616053</v>
       </c>
       <c r="F22">
-        <v>166.40274678417862</v>
+        <v>0.58004860297830008</v>
       </c>
       <c r="G22">
-        <v>10.212876649057486</v>
+        <v>0.80214751280721908</v>
       </c>
       <c r="H22">
-        <v>6.1418355062236669</v>
+        <v>0.94289670088078636</v>
       </c>
       <c r="I22">
-        <v>11.106320370482409</v>
+        <v>1.0844287771956673</v>
       </c>
       <c r="J22">
-        <v>419.09621505476667</v>
+        <v>2.5486474388223663</v>
       </c>
       <c r="K22">
-        <v>6.028476926293739</v>
+        <v>3.3449379413595786</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B23">
-        <v>69.754781587262784</v>
+        <v>14.579696712819645</v>
       </c>
       <c r="C23">
-        <v>1232.7724162596594</v>
+        <v>1119.9940898235122</v>
       </c>
       <c r="D23">
-        <v>17.906476562334145</v>
+        <v>3.9815328165702506</v>
       </c>
       <c r="E23">
-        <v>3.9820782888346065</v>
+        <v>8.9853296701144174</v>
       </c>
       <c r="F23">
-        <v>365.68744037977876</v>
+        <v>3.8948658472816469</v>
       </c>
       <c r="G23">
-        <v>4.1733221467654049</v>
+        <v>0.48506080915320748</v>
       </c>
       <c r="H23">
-        <v>3.0529806249676676</v>
+        <v>0.20102899334349331</v>
       </c>
       <c r="I23">
-        <v>9.4890189287046134</v>
+        <v>0.6871239347115311</v>
       </c>
       <c r="J23">
-        <v>215.51311585142543</v>
+        <v>60.799670207698313</v>
       </c>
       <c r="K23">
-        <v>6.6633014872237863</v>
+        <v>6.2607392949273493</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B24">
-        <v>28.064705617018042</v>
+        <v>29.306380352729786</v>
       </c>
       <c r="C24">
-        <v>4630.8369753764755</v>
+        <v>7771.9988149903438</v>
       </c>
       <c r="D24">
-        <v>85.10890368605412</v>
+        <v>7.4721880139094674</v>
       </c>
       <c r="E24">
-        <v>46.513820473233437</v>
+        <v>19.90452884480824</v>
       </c>
       <c r="F24">
-        <v>563.24670785401918</v>
+        <v>63.301709489525784</v>
       </c>
       <c r="G24">
-        <v>68.076547323138371</v>
+        <v>8.5024331744086989</v>
       </c>
       <c r="H24">
-        <v>2.6651647663460243</v>
+        <v>0.430457968592597</v>
       </c>
       <c r="I24">
-        <v>34.335352711930831</v>
+        <v>6.7810656686422091</v>
       </c>
       <c r="J24">
-        <v>1112.6062389301269</v>
+        <v>163.29472161056219</v>
       </c>
       <c r="K24">
-        <v>60.802768232570365</v>
+        <v>37.620853224504273</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B25">
-        <v>99.099557424154952</v>
+        <v>2.5500531921174554</v>
       </c>
       <c r="C25">
-        <v>14.726320349816394</v>
+        <v>11.460557473379582</v>
       </c>
       <c r="D25">
-        <v>0.1207060500900419</v>
+        <v>12.847517088273161</v>
       </c>
       <c r="E25">
-        <v>305.38241367590172</v>
+        <v>18.891456299243263</v>
       </c>
       <c r="F25">
-        <v>152.31152208941069</v>
+        <v>16.063255306441885</v>
       </c>
       <c r="G25">
-        <v>4.2197244219721783</v>
+        <v>15.733970092262783</v>
       </c>
       <c r="H25">
-        <v>378.18690166202163</v>
+        <v>4.6318741208966649</v>
       </c>
       <c r="I25">
-        <v>152.45044733654635</v>
+        <v>28.979122039708404</v>
       </c>
       <c r="J25">
-        <v>53.232876053040712</v>
+        <v>1.5313606018001733</v>
       </c>
       <c r="K25">
-        <v>4.0043533505059532</v>
+        <v>1.0467908900343497</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B26">
-        <v>22.319208008819388</v>
+        <v>5.898924413208678</v>
       </c>
       <c r="C26">
-        <v>17.721390427066599</v>
+        <v>4.256578721596914</v>
       </c>
       <c r="D26">
-        <v>2.871167028664654</v>
+        <v>0.62304294036143582</v>
       </c>
       <c r="E26">
-        <v>10.68209968535991</v>
+        <v>0.35916608311584042</v>
       </c>
       <c r="F26">
-        <v>7.3429241270391259</v>
+        <v>0.46380124816131141</v>
       </c>
       <c r="G26">
-        <v>4.4569178975843533</v>
+        <v>4.7348666952728191</v>
       </c>
       <c r="H26">
-        <v>31.940914954793868</v>
+        <v>2.3953216165935687</v>
       </c>
       <c r="I26">
-        <v>17.735433504977848</v>
+        <v>0.28564524922773055</v>
       </c>
       <c r="J26">
-        <v>1.969936937483119</v>
+        <v>0.70084236419936263</v>
       </c>
       <c r="K26">
-        <v>0.72337611573278082</v>
+        <v>4.4993917663896883E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B27">
-        <v>8.1760535824963618</v>
+        <v>0.72541837820193567</v>
       </c>
       <c r="C27">
-        <v>5.341951767157326</v>
+        <v>1.8944556619173176</v>
       </c>
       <c r="D27">
-        <v>11.043593747450576</v>
+        <v>7.5593075722758932E-2</v>
       </c>
       <c r="E27">
-        <v>35.290461480596157</v>
+        <v>0.88098948838313307</v>
       </c>
       <c r="F27">
-        <v>27.085127495384434</v>
+        <v>2.0508285040636465</v>
       </c>
       <c r="G27">
-        <v>0.10686522904389703</v>
+        <v>0.26167558828514265</v>
       </c>
       <c r="H27">
-        <v>85.587327630163927</v>
+        <v>3.9739362619518221</v>
       </c>
       <c r="I27">
-        <v>25.161020255749285</v>
+        <v>2.308082326472809</v>
       </c>
       <c r="J27">
-        <v>13.339197485754404</v>
+        <v>0.62235723347196659</v>
       </c>
       <c r="K27">
-        <v>0.67055285743271831</v>
+        <v>0.11050603814118849</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B28">
-        <v>1.856633294498269E-3</v>
+        <v>3.7346295120806246E-3</v>
       </c>
       <c r="C28">
-        <v>1.532570831771083E-2</v>
+        <v>9.2983220984757097E-3</v>
       </c>
       <c r="D28">
-        <v>7.8114874470015068E-3</v>
+        <v>3.3526291429925676E-3</v>
       </c>
       <c r="E28">
-        <v>4.937020442596766E-3</v>
+        <v>3.4483096251461832E-3</v>
       </c>
       <c r="F28">
-        <v>1.0148249066974745E-2</v>
+        <v>1.0177578394738325E-4</v>
       </c>
       <c r="G28">
-        <v>4.0017599454192808E-3</v>
+        <v>1.126549392921622E-3</v>
       </c>
       <c r="H28">
-        <v>2.4982504453849228E-2</v>
+        <v>2.4718333325587346E-3</v>
       </c>
       <c r="I28">
-        <v>1.3702349904135495E-2</v>
+        <v>3.9260476460288612E-4</v>
       </c>
       <c r="J28">
-        <v>3.7169358026480914E-2</v>
+        <v>7.94772878977019E-4</v>
       </c>
       <c r="K28">
-        <v>6.0202093713708693E-3</v>
+        <v>1.6914010987877964E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B29">
-        <v>6.6003207615807094E-2</v>
+        <v>2.8740410105051347E-2</v>
       </c>
       <c r="C29">
-        <v>0.14294368238257599</v>
+        <v>0.12088081568088439</v>
       </c>
       <c r="D29">
-        <v>7.1073581792088242E-3</v>
+        <v>2.6453700018458332E-2</v>
       </c>
       <c r="E29">
-        <v>1.1573492395535942E-2</v>
+        <v>1.0155220179350754E-2</v>
       </c>
       <c r="F29">
-        <v>1.1209350080298885E-2</v>
+        <v>3.0409554595275941E-3</v>
       </c>
       <c r="G29">
-        <v>1.6091072042776773E-2</v>
+        <v>2.4449903755111406E-3</v>
       </c>
       <c r="H29">
-        <v>5.2724110535574631E-2</v>
+        <v>3.6618853470020783E-3</v>
       </c>
       <c r="I29">
-        <v>5.5205218999589328E-2</v>
+        <v>9.0491081018554791E-3</v>
       </c>
       <c r="J29">
-        <v>1.3103887493450041E-2</v>
+        <v>1.5580009303607215E-2</v>
       </c>
       <c r="K29">
-        <v>5.2237631767015492E-2</v>
+        <v>8.9076124711059707E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B30">
-        <v>0.22964704984715775</v>
+        <v>1.3604898229722187E-3</v>
       </c>
       <c r="C30">
-        <v>5.7149176490179532E-2</v>
+        <v>0.13342059322701272</v>
       </c>
       <c r="D30">
-        <v>2.257758306526873E-2</v>
+        <v>0.17032887986523682</v>
       </c>
       <c r="E30">
-        <v>0.54918587055078083</v>
+        <v>4.7499582247046514E-2</v>
       </c>
       <c r="F30">
-        <v>9.4233182008587227E-2</v>
+        <v>3.9659445289422599E-2</v>
       </c>
       <c r="G30">
-        <v>4.9109364976925397E-2</v>
+        <v>3.1303218022029809E-2</v>
       </c>
       <c r="H30">
-        <v>0.82114197929758548</v>
+        <v>5.1811628794177535E-2</v>
       </c>
       <c r="I30">
-        <v>0.23920833736211725</v>
+        <v>1.529920020048146E-2</v>
       </c>
       <c r="J30">
-        <v>0.15224647480448597</v>
+        <v>0.12476028260542409</v>
       </c>
       <c r="K30">
-        <v>0.27345829771884966</v>
+        <v>3.0473847286662348E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B31">
-        <v>1.0185200812871451</v>
+        <v>0.34488137351579728</v>
       </c>
       <c r="C31">
-        <v>1.7449216872984701</v>
+        <v>0.23389476874692516</v>
       </c>
       <c r="D31">
-        <v>1.6545679741244117</v>
+        <v>0.12775267693840436</v>
       </c>
       <c r="E31">
-        <v>2.5510058469973349</v>
+        <v>8.2040669478321712E-2</v>
       </c>
       <c r="F31">
-        <v>0.20790653243518589</v>
+        <v>8.0642788973693827E-2</v>
       </c>
       <c r="G31">
-        <v>1.0257535372151014</v>
+        <v>6.8671583450321066E-2</v>
       </c>
       <c r="H31">
-        <v>0.71345821722885394</v>
+        <v>5.7309019101609078E-2</v>
       </c>
       <c r="I31">
-        <v>1.8947106207619986</v>
+        <v>0.10330831087594455</v>
       </c>
       <c r="J31">
-        <v>0.52644021267320573</v>
+        <v>0.1850793925880321</v>
       </c>
       <c r="K31">
-        <v>1.8726018534332323</v>
+        <v>7.5606904261249289E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B32">
-        <v>0.34089667984951627</v>
+        <v>3.5304929762770471E-2</v>
       </c>
       <c r="C32">
-        <v>0.86387144483575651</v>
+        <v>0.85845882765018866</v>
       </c>
       <c r="D32">
-        <v>3.3685048698801928E-2</v>
+        <v>1.3758488460352518E-2</v>
       </c>
       <c r="E32">
-        <v>8.937002439021563E-2</v>
+        <v>3.3485695289830766E-2</v>
       </c>
       <c r="F32">
-        <v>0.44101929793967831</v>
+        <v>9.0223726893439967E-4</v>
       </c>
       <c r="G32">
-        <v>0.12907920475299783</v>
+        <v>1.9423263467368737E-2</v>
       </c>
       <c r="H32">
-        <v>9.5706478441755173E-4</v>
+        <v>1.68075096899983E-2</v>
       </c>
       <c r="I32">
-        <v>1.3575895690432861E-2</v>
+        <v>1.3311910902958815E-2</v>
       </c>
       <c r="J32">
-        <v>1.6862890387955112</v>
+        <v>2.828206337726387E-3</v>
       </c>
       <c r="K32">
-        <v>1.8277748276459441E-3</v>
+        <v>8.9878873253766735E-3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B33">
-        <v>4.6749758678740339</v>
+        <v>0.15519778808493531</v>
       </c>
       <c r="C33">
-        <v>8.2489792266086379</v>
+        <v>1.4346802431968686</v>
       </c>
       <c r="D33">
-        <v>1.1566534915580327</v>
+        <v>0.13323942471863703</v>
       </c>
       <c r="E33">
-        <v>1.7677342798021662</v>
+        <v>2.3279553945030281E-2</v>
       </c>
       <c r="F33">
-        <v>0.99607215047153708</v>
+        <v>5.2593693003350983E-2</v>
       </c>
       <c r="G33">
-        <v>0.23863628444766674</v>
+        <v>8.9405964920588159E-3</v>
       </c>
       <c r="H33">
-        <v>0.15185679080290129</v>
+        <v>3.0207792567384421E-2</v>
       </c>
       <c r="I33">
-        <v>1.4864158767498609E-2</v>
+        <v>0.1292887156553689</v>
       </c>
       <c r="J33">
-        <v>0.86303118441690063</v>
+        <v>3.3814319383959568E-2</v>
       </c>
       <c r="K33">
-        <v>3.9774610757992622E-2</v>
+        <v>0.26841069457926975</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B34">
-        <v>2.3927284794007249</v>
+        <v>0.14620736605849141</v>
       </c>
       <c r="C34">
-        <v>3.0450322836984647</v>
+        <v>2.4567106418726548</v>
       </c>
       <c r="D34">
-        <v>2.9395824850145118</v>
+        <v>5.4016441530235701E-2</v>
       </c>
       <c r="E34">
-        <v>0.66724203482948441</v>
+        <v>4.9620536682255263E-3</v>
       </c>
       <c r="F34">
-        <v>2.9701104349267804</v>
+        <v>6.8041634422799563E-2</v>
       </c>
       <c r="G34">
-        <v>1.000563296718612</v>
+        <v>0.12322298783345577</v>
       </c>
       <c r="H34">
-        <v>0.36434308917959246</v>
+        <v>0.23815425287868122</v>
       </c>
       <c r="I34">
-        <v>1.2769828231821524E-2</v>
+        <v>0.21661465259866924</v>
       </c>
       <c r="J34">
-        <v>1.0849801296702104</v>
+        <v>5.3096469417863314E-2</v>
       </c>
       <c r="K34">
-        <v>0.49403008300245577</v>
+        <v>4.5876262044737097E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B35">
-        <v>418.08243675339156</v>
+        <v>12.870638119512835</v>
       </c>
       <c r="C35">
-        <v>35.15983716223414</v>
+        <v>11.081207346273851</v>
       </c>
       <c r="D35">
-        <v>267.97484121393057</v>
+        <v>31.581553005708329</v>
       </c>
       <c r="E35">
-        <v>722.90418888788315</v>
+        <v>42.020830481306838</v>
       </c>
       <c r="F35">
-        <v>1052.4091197848927</v>
+        <v>94.219114952142306</v>
       </c>
       <c r="G35">
-        <v>141.98185586292297</v>
+        <v>11.386167700042609</v>
       </c>
       <c r="H35">
-        <v>461.13643878185246</v>
+        <v>2.5406832014643839</v>
       </c>
       <c r="I35">
-        <v>588.89117441762983</v>
+        <v>34.060646815337186</v>
       </c>
       <c r="J35">
-        <v>1281.3589339488476</v>
+        <v>66.500845698464886</v>
       </c>
       <c r="K35">
-        <v>208.80146966162536</v>
+        <v>29.832081155117145</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B36">
-        <v>97.179064238262754</v>
+        <v>1.1348958258225497</v>
       </c>
       <c r="C36">
-        <v>93.575077860243383</v>
+        <v>146.09846491273424</v>
       </c>
       <c r="D36">
-        <v>224.50747391716547</v>
+        <v>12.76755806010768</v>
       </c>
       <c r="E36">
-        <v>137.06054639550732</v>
+        <v>7.3583508420057573</v>
       </c>
       <c r="F36">
-        <v>760.45090438786019</v>
+        <v>30.910963542626838</v>
       </c>
       <c r="G36">
-        <v>167.50070833793538</v>
+        <v>3.0497877929273693</v>
       </c>
       <c r="H36">
-        <v>468.32136005401441</v>
+        <v>7.285607789440637</v>
       </c>
       <c r="I36">
-        <v>187.87134357542726</v>
+        <v>40.766839534223358</v>
       </c>
       <c r="J36">
-        <v>595.89436189775518</v>
+        <v>64.791565684435369</v>
       </c>
       <c r="K36">
-        <v>126.99110022690793</v>
+        <v>43.656371873500824</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B37">
-        <v>75.959999999999994</v>
+        <v>1.0209491200000074</v>
       </c>
       <c r="C37">
-        <v>45.919999999999874</v>
+        <v>153.37449216000002</v>
       </c>
       <c r="D37">
-        <v>54.700000000000017</v>
+        <v>1.2728099199999341</v>
       </c>
       <c r="E37">
-        <v>278.03999999999996</v>
+        <v>5.036171519999928</v>
       </c>
       <c r="F37">
-        <v>387.52000000000015</v>
+        <v>1.3010201600002937</v>
       </c>
       <c r="G37">
-        <v>28</v>
+        <v>4.6503091200000286</v>
       </c>
       <c r="H37">
-        <v>189.44</v>
+        <v>11.2030016</v>
       </c>
       <c r="I37">
-        <v>168.26000000000002</v>
+        <v>41.574880000000007</v>
       </c>
       <c r="J37">
-        <v>269.59999999999997</v>
+        <v>19.22823787999998</v>
       </c>
       <c r="K37">
-        <v>30.835000000000012</v>
+        <v>6.2850335999999976</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B38">
-        <v>217.12000000000003</v>
+        <v>1.3312416000000618</v>
       </c>
       <c r="C38">
-        <v>18.080000000000034</v>
+        <v>28.98298239999982</v>
       </c>
       <c r="D38">
-        <v>20.159999999999918</v>
+        <v>11.35704447999996</v>
       </c>
       <c r="E38">
-        <v>468.24000000000007</v>
+        <v>33.598515199999817</v>
       </c>
       <c r="F38">
-        <v>386.88000000000011</v>
+        <v>99.294556159999644</v>
       </c>
       <c r="G38">
-        <v>27.11624999999999</v>
+        <v>0.47347712000005926</v>
       </c>
       <c r="H38">
-        <v>151.03999999999988</v>
+        <v>4.0782630399999489</v>
       </c>
       <c r="I38">
-        <v>336.95999999999992</v>
+        <v>17.238337280000003</v>
       </c>
       <c r="J38">
-        <v>172.51249999999999</v>
+        <v>3.021684075000016</v>
       </c>
       <c r="K38">
-        <v>75.489999999999995</v>
+        <v>10.946170880000009</v>
       </c>
     </row>
   </sheetData>
@@ -19839,10 +20368,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K14"/>
+      <selection activeCell="B2" sqref="B2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19860,107 +20389,107 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2">
-        <v>2.5746000000000002E-2</v>
+        <v>2.5758E-2</v>
       </c>
       <c r="C2">
-        <v>2.6123E-2</v>
+        <v>2.6002999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>2.4138E-2</v>
+        <v>1.9495999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>2.8639000000000001E-2</v>
+        <v>2.1967E-2</v>
       </c>
       <c r="F2">
-        <v>2.3309E-2</v>
+        <v>2.3358E-2</v>
       </c>
       <c r="G2">
-        <v>2.6925000000000001E-2</v>
+        <v>2.0745E-2</v>
       </c>
       <c r="H2">
-        <v>4.8308999999999998E-2</v>
+        <v>3.4629E-2</v>
       </c>
       <c r="I2">
-        <v>3.1671999999999999E-2</v>
+        <v>2.3588000000000001E-2</v>
       </c>
       <c r="J2">
-        <v>1.8953000000000001E-2</v>
+        <v>1.8917E-2</v>
       </c>
       <c r="K2">
-        <v>3.1968999999999997E-2</v>
+        <v>2.8154999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B3">
-        <v>2.7033000000000001E-2</v>
+        <v>2.6945E-2</v>
       </c>
       <c r="C3">
-        <v>2.8705000000000001E-2</v>
+        <v>2.8473999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>3.5757999999999998E-2</v>
+        <v>3.0324E-2</v>
       </c>
       <c r="E3">
-        <v>4.2776000000000002E-2</v>
+        <v>3.5355999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>2.9243000000000002E-2</v>
+        <v>2.9155E-2</v>
       </c>
       <c r="G3">
-        <v>3.6220000000000002E-2</v>
+        <v>2.8912E-2</v>
       </c>
       <c r="H3">
-        <v>5.8588000000000001E-2</v>
+        <v>4.2341999999999998E-2</v>
       </c>
       <c r="I3">
-        <v>3.6954000000000001E-2</v>
+        <v>2.6803E-2</v>
       </c>
       <c r="J3">
-        <v>2.4088999999999999E-2</v>
+        <v>2.3904999999999999E-2</v>
       </c>
       <c r="K3">
-        <v>5.3397E-2</v>
+        <v>4.9683999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>560.5</v>
+        <v>560</v>
       </c>
       <c r="B4">
-        <v>4.5360999999999999E-2</v>
+        <v>4.5578E-2</v>
       </c>
       <c r="C4">
-        <v>9.7164E-2</v>
+        <v>9.6517000000000006E-2</v>
       </c>
       <c r="D4">
-        <v>4.8835999999999997E-2</v>
+        <v>4.1895000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>5.8342999999999999E-2</v>
+        <v>4.9001000000000003E-2</v>
       </c>
       <c r="F4">
-        <v>5.3689000000000001E-2</v>
+        <v>5.4063E-2</v>
       </c>
       <c r="G4">
-        <v>8.2971000000000003E-2</v>
+        <v>7.7641000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>7.9125000000000001E-2</v>
+        <v>5.8431999999999998E-2</v>
       </c>
       <c r="I4">
-        <v>4.7808000000000003E-2</v>
+        <v>3.3891999999999999E-2</v>
       </c>
       <c r="J4">
-        <v>7.2230000000000003E-2</v>
+        <v>7.2589000000000001E-2</v>
       </c>
       <c r="K4">
-        <v>8.3680000000000004E-2</v>
+        <v>8.0214999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -19968,69 +20497,69 @@
         <v>665</v>
       </c>
       <c r="B5">
-        <v>2.3685000000000001E-2</v>
+        <v>2.3213000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>6.3449000000000005E-2</v>
+        <v>6.2904000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>3.4611999999999997E-2</v>
+        <v>2.2460000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>4.3298000000000003E-2</v>
+        <v>2.6224999999999998E-2</v>
       </c>
       <c r="F5">
-        <v>2.5167999999999999E-2</v>
+        <v>2.4958999999999999E-2</v>
       </c>
       <c r="G5">
-        <v>5.8116000000000001E-2</v>
+        <v>4.4130000000000003E-2</v>
       </c>
       <c r="H5">
-        <v>9.6863000000000005E-2</v>
+        <v>6.6235000000000002E-2</v>
       </c>
       <c r="I5">
-        <v>4.8973999999999997E-2</v>
+        <v>2.8466999999999999E-2</v>
       </c>
       <c r="J5">
-        <v>2.9781999999999999E-2</v>
+        <v>2.9520999999999999E-2</v>
       </c>
       <c r="K5">
-        <v>7.2982000000000005E-2</v>
+        <v>6.3025999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>704.5</v>
+        <v>705</v>
       </c>
       <c r="B6">
-        <v>6.4980999999999997E-2</v>
+        <v>6.5324999999999994E-2</v>
       </c>
       <c r="C6">
-        <v>0.24032999999999999</v>
+        <v>0.23974999999999999</v>
       </c>
       <c r="D6">
-        <v>8.3780999999999994E-2</v>
+        <v>7.4608999999999995E-2</v>
       </c>
       <c r="E6">
-        <v>9.1603000000000004E-2</v>
+        <v>7.8894000000000006E-2</v>
       </c>
       <c r="F6">
-        <v>0.10376000000000001</v>
+        <v>0.10489999999999999</v>
       </c>
       <c r="G6">
-        <v>0.14835999999999999</v>
+        <v>0.14538999999999999</v>
       </c>
       <c r="H6">
-        <v>0.11713</v>
+        <v>9.0108999999999995E-2</v>
       </c>
       <c r="I6">
-        <v>7.5146000000000004E-2</v>
+        <v>5.5688000000000001E-2</v>
       </c>
       <c r="J6">
-        <v>0.12862999999999999</v>
+        <v>0.12977</v>
       </c>
       <c r="K6">
-        <v>0.15961</v>
+        <v>0.16266</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -20038,34 +20567,34 @@
         <v>740</v>
       </c>
       <c r="B7">
-        <v>0.30120000000000002</v>
+        <v>0.30991999999999997</v>
       </c>
       <c r="C7">
-        <v>0.46050000000000002</v>
+        <v>0.45973000000000003</v>
       </c>
       <c r="D7">
-        <v>0.20405000000000001</v>
+        <v>0.20882999999999999</v>
       </c>
       <c r="E7">
-        <v>0.23097999999999999</v>
+        <v>0.24354000000000001</v>
       </c>
       <c r="F7">
-        <v>0.28938000000000003</v>
+        <v>0.29459999999999997</v>
       </c>
       <c r="G7">
-        <v>0.2737</v>
+        <v>0.30074000000000001</v>
       </c>
       <c r="H7">
-        <v>0.16425000000000001</v>
+        <v>0.15637999999999999</v>
       </c>
       <c r="I7">
-        <v>0.21525</v>
+        <v>0.23047999999999999</v>
       </c>
       <c r="J7">
-        <v>0.32106000000000001</v>
+        <v>0.32630999999999999</v>
       </c>
       <c r="K7">
-        <v>0.21904000000000001</v>
+        <v>0.23804</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -20073,104 +20602,104 @@
         <v>783</v>
       </c>
       <c r="B8">
-        <v>0.40343000000000001</v>
+        <v>0.42138999999999999</v>
       </c>
       <c r="C8">
-        <v>0.51866999999999996</v>
+        <v>0.51798</v>
       </c>
       <c r="D8">
-        <v>0.25733</v>
+        <v>0.27199000000000001</v>
       </c>
       <c r="E8">
-        <v>0.30297000000000002</v>
+        <v>0.33838000000000001</v>
       </c>
       <c r="F8">
-        <v>0.36569000000000002</v>
+        <v>0.37435000000000002</v>
       </c>
       <c r="G8">
-        <v>0.32180999999999998</v>
+        <v>0.36643999999999999</v>
       </c>
       <c r="H8">
-        <v>0.18844</v>
+        <v>0.18995000000000001</v>
       </c>
       <c r="I8">
-        <v>0.28079999999999999</v>
+        <v>0.32343</v>
       </c>
       <c r="J8">
-        <v>0.39312000000000002</v>
+        <v>0.40178000000000003</v>
       </c>
       <c r="K8">
-        <v>0.23391000000000001</v>
+        <v>0.25623000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>838.84</v>
+        <v>842</v>
       </c>
       <c r="B9">
-        <v>0.40899000000000002</v>
+        <v>0.42731999999999998</v>
       </c>
       <c r="C9">
-        <v>0.53064</v>
+        <v>0.52983999999999998</v>
       </c>
       <c r="D9">
-        <v>0.27977000000000002</v>
+        <v>0.29859999999999998</v>
       </c>
       <c r="E9">
-        <v>0.33826000000000001</v>
+        <v>0.38719999999999999</v>
       </c>
       <c r="F9">
-        <v>0.39706999999999998</v>
+        <v>0.40687000000000001</v>
       </c>
       <c r="G9">
-        <v>0.34625</v>
+        <v>0.40055000000000002</v>
       </c>
       <c r="H9">
-        <v>0.20016</v>
+        <v>0.20523</v>
       </c>
       <c r="I9">
-        <v>0.29426999999999998</v>
+        <v>0.34144000000000002</v>
       </c>
       <c r="J9">
-        <v>0.41167999999999999</v>
+        <v>0.42118</v>
       </c>
       <c r="K9">
-        <v>0.23801</v>
+        <v>0.26039000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>863.25</v>
+        <v>865</v>
       </c>
       <c r="B10">
-        <v>0.40927000000000002</v>
+        <v>0.42753999999999998</v>
       </c>
       <c r="C10">
-        <v>0.53176999999999996</v>
+        <v>0.53122999999999998</v>
       </c>
       <c r="D10">
-        <v>0.29126000000000002</v>
+        <v>0.31402000000000002</v>
       </c>
       <c r="E10">
-        <v>0.35815000000000002</v>
+        <v>0.41879</v>
       </c>
       <c r="F10">
-        <v>0.41399999999999998</v>
+        <v>0.42659000000000002</v>
       </c>
       <c r="G10">
-        <v>0.35957</v>
+        <v>0.42176000000000002</v>
       </c>
       <c r="H10">
-        <v>0.20610000000000001</v>
+        <v>0.21401000000000001</v>
       </c>
       <c r="I10">
-        <v>0.29968</v>
+        <v>0.34925</v>
       </c>
       <c r="J10">
-        <v>0.41793999999999998</v>
+        <v>0.42853999999999998</v>
       </c>
       <c r="K10">
-        <v>0.23848</v>
+        <v>0.26023000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -20178,139 +20707,104 @@
         <v>945</v>
       </c>
       <c r="B11">
-        <v>0.35559000000000002</v>
+        <v>0.36525000000000002</v>
       </c>
       <c r="C11">
-        <v>0.42857000000000001</v>
+        <v>0.42374000000000001</v>
       </c>
       <c r="D11">
-        <v>0.27451999999999999</v>
+        <v>0.28891</v>
       </c>
       <c r="E11">
-        <v>0.37696000000000002</v>
+        <v>0.44524999999999998</v>
       </c>
       <c r="F11">
-        <v>0.41347</v>
+        <v>0.42510999999999999</v>
       </c>
       <c r="G11">
-        <v>0.36707000000000001</v>
+        <v>0.43037999999999998</v>
       </c>
       <c r="H11">
-        <v>0.20477000000000001</v>
+        <v>0.20532</v>
       </c>
       <c r="I11">
-        <v>0.26306000000000002</v>
+        <v>0.28697</v>
       </c>
       <c r="J11">
-        <v>0.33706000000000003</v>
+        <v>0.33979999999999999</v>
       </c>
       <c r="K11">
-        <v>0.2014</v>
+        <v>0.20602000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1374.5</v>
+        <v>1610</v>
       </c>
       <c r="B12">
-        <v>6.6542000000000004E-2</v>
+        <v>4.6514E-2</v>
       </c>
       <c r="C12">
-        <v>6.5697000000000005E-2</v>
+        <v>4.7571000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>8.7611999999999995E-2</v>
+        <v>5.7500999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>0.26201000000000002</v>
+        <v>0.24864</v>
       </c>
       <c r="F12">
-        <v>0.18076999999999999</v>
+        <v>0.14433000000000001</v>
       </c>
       <c r="G12">
-        <v>0.23784</v>
+        <v>0.21653</v>
       </c>
       <c r="H12">
-        <v>0.14857000000000001</v>
+        <v>0.10943</v>
       </c>
       <c r="I12">
-        <v>8.0443000000000001E-2</v>
+        <v>4.2226E-2</v>
       </c>
       <c r="J12">
-        <v>5.6357999999999998E-2</v>
+        <v>4.1792999999999997E-2</v>
       </c>
       <c r="K12">
-        <v>5.6846000000000001E-2</v>
+        <v>3.1691999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1610.5</v>
+        <v>2190</v>
       </c>
       <c r="B13">
-        <v>4.7409E-2</v>
+        <v>1.4279E-2</v>
       </c>
       <c r="C13">
-        <v>4.8087999999999999E-2</v>
+        <v>1.4699E-2</v>
       </c>
       <c r="D13">
-        <v>7.6076000000000005E-2</v>
+        <v>2.0528999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>0.24687000000000001</v>
+        <v>0.12673999999999999</v>
       </c>
       <c r="F13">
-        <v>0.14352999999999999</v>
+        <v>4.1959000000000003E-2</v>
       </c>
       <c r="G13">
-        <v>0.21967999999999999</v>
+        <v>0.10656</v>
       </c>
       <c r="H13">
-        <v>0.15293000000000001</v>
+        <v>9.1006000000000004E-2</v>
       </c>
       <c r="I13">
-        <v>7.5424000000000005E-2</v>
+        <v>2.7646E-2</v>
       </c>
       <c r="J13">
-        <v>4.2276000000000001E-2</v>
+        <v>1.1748E-2</v>
       </c>
       <c r="K13">
-        <v>5.5163999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2199</v>
-      </c>
-      <c r="B14">
-        <v>1.5291000000000001E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.4762000000000001E-2</v>
-      </c>
-      <c r="D14">
-        <v>3.9690000000000003E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.14241000000000001</v>
-      </c>
-      <c r="F14">
-        <v>4.2020000000000002E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.12274</v>
-      </c>
-      <c r="H14">
-        <v>0.13366</v>
-      </c>
-      <c r="I14">
-        <v>5.8562000000000003E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.2337000000000001E-2</v>
-      </c>
-      <c r="K14">
-        <v>4.0149999999999998E-2</v>
+        <v>1.7666000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20320,10 +20814,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K14"/>
+      <selection activeCell="B2" sqref="B2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20341,107 +20835,107 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B2">
-        <v>2.4706960806620531E-2</v>
+        <v>2.4831864728854673E-2</v>
       </c>
       <c r="C2">
-        <v>2.4933433993047292E-2</v>
+        <v>2.5388955570092128E-2</v>
       </c>
       <c r="D2">
-        <v>2.3022292628465949E-2</v>
+        <v>1.794351358586483E-2</v>
       </c>
       <c r="E2">
-        <v>2.8574360337993786E-2</v>
+        <v>2.2156816804252032E-2</v>
       </c>
       <c r="F2">
-        <v>2.3060162071934079E-2</v>
+        <v>2.3094981316237162E-2</v>
       </c>
       <c r="G2">
-        <v>2.7172551431229174E-2</v>
+        <v>2.0389265169141232E-2</v>
       </c>
       <c r="H2">
-        <v>4.827672905493488E-2</v>
+        <v>3.4585085809873788E-2</v>
       </c>
       <c r="I2">
-        <v>3.1471516620268675E-2</v>
+        <v>2.2873766000488124E-2</v>
       </c>
       <c r="J2">
-        <v>1.7745743966212774E-2</v>
+        <v>1.8725997711736549E-2</v>
       </c>
       <c r="K2">
-        <v>3.1097848587516821E-2</v>
+        <v>2.7244309305314778E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B3">
-        <v>2.7047405719214854E-2</v>
+        <v>2.6953090702127876E-2</v>
       </c>
       <c r="C3">
-        <v>2.8917688221786638E-2</v>
+        <v>2.8622734427810773E-2</v>
       </c>
       <c r="D3">
-        <v>3.5844578942333331E-2</v>
+        <v>3.0458281274571265E-2</v>
       </c>
       <c r="E3">
-        <v>4.2782590286777299E-2</v>
+        <v>3.5346242141911795E-2</v>
       </c>
       <c r="F3">
-        <v>2.9265414878667791E-2</v>
+        <v>2.9193394537411578E-2</v>
       </c>
       <c r="G3">
-        <v>3.6172807174891304E-2</v>
+        <v>2.9088180707270005E-2</v>
       </c>
       <c r="H3">
-        <v>5.8625755790753797E-2</v>
+        <v>4.2383829285552163E-2</v>
       </c>
       <c r="I3">
-        <v>3.6980017619201035E-2</v>
+        <v>2.6826189950032074E-2</v>
       </c>
       <c r="J3">
-        <v>2.4247819479070083E-2</v>
+        <v>2.3998634767381725E-2</v>
       </c>
       <c r="K3">
-        <v>5.3863544337615928E-2</v>
+        <v>4.9825088065098271E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>560.5</v>
+        <v>560</v>
       </c>
       <c r="B4">
-        <v>4.5361814823074526E-2</v>
+        <v>4.5578196600390856E-2</v>
       </c>
       <c r="C4">
-        <v>9.7160566104327148E-2</v>
+        <v>9.6518270523223176E-2</v>
       </c>
       <c r="D4">
-        <v>4.8811748222688925E-2</v>
+        <v>4.2079776805999135E-2</v>
       </c>
       <c r="E4">
-        <v>5.8344918459249016E-2</v>
+        <v>4.9006635368265571E-2</v>
       </c>
       <c r="F4">
-        <v>5.3696035670815649E-2</v>
+        <v>5.4070163774495437E-2</v>
       </c>
       <c r="G4">
-        <v>8.2975935096227249E-2</v>
+        <v>7.7647012518292993E-2</v>
       </c>
       <c r="H4">
-        <v>7.9135299942824894E-2</v>
+        <v>5.8499852658764173E-2</v>
       </c>
       <c r="I4">
-        <v>4.7823648865912942E-2</v>
+        <v>3.3894528513549425E-2</v>
       </c>
       <c r="J4">
-        <v>7.2228116565788231E-2</v>
+        <v>7.266473526870125E-2</v>
       </c>
       <c r="K4">
-        <v>8.358505409140711E-2</v>
+        <v>7.9640344440335992E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -20449,69 +20943,69 @@
         <v>665</v>
       </c>
       <c r="B5">
-        <v>2.3247359181818698E-2</v>
+        <v>2.2764446563991323E-2</v>
       </c>
       <c r="C5">
-        <v>6.3386056217434178E-2</v>
+        <v>6.295630659586221E-2</v>
       </c>
       <c r="D5">
-        <v>3.4344587691305405E-2</v>
+        <v>2.2206663789833485E-2</v>
       </c>
       <c r="E5">
-        <v>4.3180554818139351E-2</v>
+        <v>2.5981454465117938E-2</v>
       </c>
       <c r="F5">
-        <v>2.5063369924168934E-2</v>
+        <v>2.479907867366082E-2</v>
       </c>
       <c r="G5">
-        <v>5.7922278831193434E-2</v>
+        <v>4.3893087460604163E-2</v>
       </c>
       <c r="H5">
-        <v>9.6834213533522867E-2</v>
+        <v>6.6282364915046896E-2</v>
       </c>
       <c r="I5">
-        <v>4.8838311474402006E-2</v>
+        <v>2.8204949831778774E-2</v>
       </c>
       <c r="J5">
-        <v>2.9603621541260207E-2</v>
+        <v>2.9603060362339267E-2</v>
       </c>
       <c r="K5">
-        <v>7.1158744770701235E-2</v>
+        <v>6.0384263130045017E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>704.5</v>
+        <v>705</v>
       </c>
       <c r="B6">
-        <v>6.4662815272027538E-2</v>
+        <v>6.5021055167643865E-2</v>
       </c>
       <c r="C6">
-        <v>0.24033122514844649</v>
+        <v>0.23969381444446214</v>
       </c>
       <c r="D6">
-        <v>8.3361165948060395E-2</v>
+        <v>7.4384029955147854E-2</v>
       </c>
       <c r="E6">
-        <v>9.1757014836102602E-2</v>
+        <v>7.9278957570949854E-2</v>
       </c>
       <c r="F6">
-        <v>0.10365295378212419</v>
+        <v>0.1047151240743299</v>
       </c>
       <c r="G6">
-        <v>0.14843772338687508</v>
+        <v>0.14553304398617176</v>
       </c>
       <c r="H6">
-        <v>0.11710553726403813</v>
+        <v>9.0042282541808225E-2</v>
       </c>
       <c r="I6">
-        <v>7.5039308396468427E-2</v>
+        <v>5.5192358992688019E-2</v>
       </c>
       <c r="J6">
-        <v>0.12859716686898565</v>
+        <v>0.12983868125699999</v>
       </c>
       <c r="K6">
-        <v>0.16170678894920593</v>
+        <v>0.16442932612684874</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -20519,34 +21013,34 @@
         <v>740</v>
       </c>
       <c r="B7">
-        <v>0.30146199922023892</v>
+        <v>0.31016228653954259</v>
       </c>
       <c r="C7">
-        <v>0.46058800498419217</v>
+        <v>0.45972984724093285</v>
       </c>
       <c r="D7">
-        <v>0.20516462195648294</v>
+        <v>0.20992078800219763</v>
       </c>
       <c r="E7">
-        <v>0.23076303435773818</v>
+        <v>0.24304515473194488</v>
       </c>
       <c r="F7">
-        <v>0.28965631921362861</v>
+        <v>0.29500896905037394</v>
       </c>
       <c r="G7">
-        <v>0.27373631638332435</v>
+        <v>0.30063414330360566</v>
       </c>
       <c r="H7">
-        <v>0.16431146339831768</v>
+        <v>0.15648174665058515</v>
       </c>
       <c r="I7">
-        <v>0.2152482486750617</v>
+        <v>0.23073676876171959</v>
       </c>
       <c r="J7">
-        <v>0.32131422183455915</v>
+        <v>0.32642151558907023</v>
       </c>
       <c r="K7">
-        <v>0.21970698830759214</v>
+        <v>0.23798894571991161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -20554,104 +21048,104 @@
         <v>783</v>
       </c>
       <c r="B8">
-        <v>0.40311876863873514</v>
+        <v>0.4210915942060186</v>
       </c>
       <c r="C8">
-        <v>0.51844602396766482</v>
+        <v>0.51767370383342504</v>
       </c>
       <c r="D8">
-        <v>0.2566224942426325</v>
+        <v>0.27146115658166015</v>
       </c>
       <c r="E8">
-        <v>0.3029546342877702</v>
+        <v>0.3386048526583384</v>
       </c>
       <c r="F8">
-        <v>0.36545727555532709</v>
+        <v>0.37396317190903533</v>
       </c>
       <c r="G8">
-        <v>0.32166787477078002</v>
+        <v>0.36607465117185439</v>
       </c>
       <c r="H8">
-        <v>0.1883457644042684</v>
+        <v>0.18961365654448317</v>
       </c>
       <c r="I8">
-        <v>0.28045826941540175</v>
+        <v>0.32286058511743876</v>
       </c>
       <c r="J8">
-        <v>0.39287777281020897</v>
+        <v>0.40158566549373054</v>
       </c>
       <c r="K8">
-        <v>0.23316386121760796</v>
+        <v>0.25558739482843723</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>838.84</v>
+        <v>842</v>
       </c>
       <c r="B9">
-        <v>0.40897464890035928</v>
+        <v>0.42732902830783509</v>
       </c>
       <c r="C9">
-        <v>0.53052212020604528</v>
+        <v>0.52957375484002278</v>
       </c>
       <c r="D9">
-        <v>0.27923564627031028</v>
+        <v>0.29810295913109047</v>
       </c>
       <c r="E9">
-        <v>0.33835461627278368</v>
+        <v>0.38729580817463327</v>
       </c>
       <c r="F9">
-        <v>0.39699729300310227</v>
+        <v>0.40670354063841807</v>
       </c>
       <c r="G9">
-        <v>0.34627565010048661</v>
+        <v>0.40031421142323548</v>
       </c>
       <c r="H9">
-        <v>0.20016337209812193</v>
+        <v>0.20498913588505324</v>
       </c>
       <c r="I9">
-        <v>0.29417608553736446</v>
+        <v>0.34128215318478711</v>
       </c>
       <c r="J9">
-        <v>0.41162207474630169</v>
+        <v>0.42100924820506913</v>
       </c>
       <c r="K9">
-        <v>0.23672252196818563</v>
+        <v>0.25984977023907285</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>863.25</v>
+        <v>865</v>
       </c>
       <c r="B10">
-        <v>0.40944621210919707</v>
+        <v>0.4277851419000725</v>
       </c>
       <c r="C10">
-        <v>0.53186295297213526</v>
+        <v>0.53110892307335844</v>
       </c>
       <c r="D10">
-        <v>0.2909532459371571</v>
+        <v>0.31362379049296996</v>
       </c>
       <c r="E10">
-        <v>0.35838449373319647</v>
+        <v>0.41898474428201543</v>
       </c>
       <c r="F10">
-        <v>0.41401819798854922</v>
+        <v>0.42654861749921547</v>
       </c>
       <c r="G10">
-        <v>0.35970631996448948</v>
+        <v>0.42166753016647679</v>
       </c>
       <c r="H10">
-        <v>0.20614736259980837</v>
+        <v>0.21382262374467839</v>
       </c>
       <c r="I10">
-        <v>0.29972843201654553</v>
+        <v>0.34939478763834153</v>
       </c>
       <c r="J10">
-        <v>0.41807672475838387</v>
+        <v>0.42842573591003069</v>
       </c>
       <c r="K10">
-        <v>0.23722498066558331</v>
+        <v>0.25999313092611465</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -20659,139 +21153,104 @@
         <v>945</v>
       </c>
       <c r="B11">
-        <v>0.35552136941752993</v>
+        <v>0.36507519683514372</v>
       </c>
       <c r="C11">
-        <v>0.42853821552390431</v>
+        <v>0.42369197396915526</v>
       </c>
       <c r="D11">
-        <v>0.2756026602001731</v>
+        <v>0.28985430388036232</v>
       </c>
       <c r="E11">
-        <v>0.37668335458559071</v>
+        <v>0.44496587698465417</v>
       </c>
       <c r="F11">
-        <v>0.41357190769306751</v>
+        <v>0.42525529872599588</v>
       </c>
       <c r="G11">
-        <v>0.36696053979910576</v>
+        <v>0.4299161571417171</v>
       </c>
       <c r="H11">
-        <v>0.20472722394629791</v>
+        <v>0.20524297198420979</v>
       </c>
       <c r="I11">
-        <v>0.26277120415813071</v>
+        <v>0.2866994289820895</v>
       </c>
       <c r="J11">
-        <v>0.33714541214994009</v>
+        <v>0.33984656370975191</v>
       </c>
       <c r="K11">
-        <v>0.20500150516241064</v>
+        <v>0.20760213129184898</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1374.5</v>
+        <v>1610</v>
       </c>
       <c r="B12">
-        <v>6.6361541827920603E-2</v>
+        <v>4.6636439813130197E-2</v>
       </c>
       <c r="C12">
-        <v>6.5754819507586604E-2</v>
+        <v>4.7578048378685456E-2</v>
       </c>
       <c r="D12">
-        <v>8.7352768005883097E-2</v>
+        <v>5.656905364924994E-2</v>
       </c>
       <c r="E12">
-        <v>0.26257086371648281</v>
+        <v>0.24883973137259482</v>
       </c>
       <c r="F12">
-        <v>0.18070526059447334</v>
+        <v>0.14420895124365798</v>
       </c>
       <c r="G12">
-        <v>0.23788661752305409</v>
+        <v>0.21653235169073864</v>
       </c>
       <c r="H12">
-        <v>0.14856109759416739</v>
+        <v>0.10940886679329456</v>
       </c>
       <c r="I12">
-        <v>8.049369971676347E-2</v>
+        <v>4.2434601718223358E-2</v>
       </c>
       <c r="J12">
-        <v>5.6146676044915488E-2</v>
+        <v>4.183702200751372E-2</v>
       </c>
       <c r="K12">
-        <v>5.7805112427340481E-2</v>
+        <v>3.0068447058266546E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1610.5</v>
+        <v>2190</v>
       </c>
       <c r="B13">
-        <v>4.7626427257911483E-2</v>
+        <v>1.4772525071586214E-2</v>
       </c>
       <c r="C13">
-        <v>4.8072275546253908E-2</v>
+        <v>1.4356328804361891E-2</v>
       </c>
       <c r="D13">
-        <v>7.5464272041473532E-2</v>
+        <v>2.2086079390700661E-2</v>
       </c>
       <c r="E13">
-        <v>0.24607644605370904</v>
+        <v>0.12652290936334812</v>
       </c>
       <c r="F13">
-        <v>0.14356621812715287</v>
+        <v>4.2092367133782484E-2</v>
       </c>
       <c r="G13">
-        <v>0.21959823689206928</v>
+        <v>0.10659890518873016</v>
       </c>
       <c r="H13">
-        <v>0.15302096870015527</v>
+        <v>9.115931359318262E-2</v>
       </c>
       <c r="I13">
-        <v>7.5671452335908454E-2</v>
+        <v>2.8159906618783787E-2</v>
       </c>
       <c r="J13">
-        <v>4.2399100267747895E-2</v>
+        <v>1.1908187300446463E-2</v>
       </c>
       <c r="K13">
-        <v>5.4894741163849875E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2199</v>
-      </c>
-      <c r="B14">
-        <v>1.5863483896137009E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.421292999414938E-2</v>
-      </c>
-      <c r="D14">
-        <v>4.1072638346723443E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.14270546368399897</v>
-      </c>
-      <c r="F14">
-        <v>4.2080915096910011E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.12279588795985054</v>
-      </c>
-      <c r="H14">
-        <v>0.1336617123152031</v>
-      </c>
-      <c r="I14">
-        <v>5.8624088033567855E-2</v>
-      </c>
-      <c r="J14">
-        <v>1.2621527211576436E-2</v>
-      </c>
-      <c r="K14">
-        <v>3.9681156368612719E-2</v>
+        <v>1.9563635588927659E-2</v>
       </c>
     </row>
   </sheetData>
